--- a/DataSet/Algorithms Data.xlsx
+++ b/DataSet/Algorithms Data.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECA9CC58-1636-4E9C-83EF-61F3DF035322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/logannitzsche/Documents/GitHub/Intelligent-Routing-for-Emergency-Services-in-Edwardsville/DataSet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC9AFE0-5D22-EE40-89C3-733FE40C801A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="14800" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>LOCATIONS</t>
   </si>
@@ -99,23 +104,53 @@
     <t>NOTE:</t>
   </si>
   <si>
-    <t>Minutes Distance Table Begins on BA9</t>
-  </si>
-  <si>
-    <t>Miles Distance Table Begins on G10</t>
-  </si>
-  <si>
     <t>Location Annotations and Node Coordinates Begins on A1</t>
   </si>
   <si>
-    <t>No Residential Areas Listed (Use API's, Coordinates, and User-provided Address to Calculate Distance)</t>
+    <t>(NO RESIDENTIAL AREAS)</t>
+  </si>
+  <si>
+    <t>Reserves Student Apartments = RA (38.80518785768586, -90.00950273315568)</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Parc at 720 Student Apartments = PA (38.80370049072766, -90.0118599711942)</t>
+  </si>
+  <si>
+    <t>Minutes Distance Table Begins on BA9 (no residential areas)</t>
+  </si>
+  <si>
+    <t>Miles Distance Table Begins on G10 (with residential areas)</t>
+  </si>
+  <si>
+    <t>The Social Student Apartments = SA (38.78475200026057, -89.98201421937024)</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>CVA</t>
+  </si>
+  <si>
+    <t>Cougar Village Apartments = CVA (38.80438098482753, -89.99518772883548)</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>Enclave Student Apartments = EA (38.80546832836268, -89.97140624030128)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,23 +522,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ22"/>
+  <dimension ref="A1:BJ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:62">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -511,42 +546,60 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:62">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:62">
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:62">
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:62">
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:62">
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:62">
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:62">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="BA9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:62">
+      <c r="BB9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="G10" t="s">
         <v>9</v>
       </c>
@@ -577,6 +630,21 @@
       <c r="Q10" t="s">
         <v>18</v>
       </c>
+      <c r="R10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" t="s">
+        <v>26</v>
+      </c>
+      <c r="U10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10" t="s">
+        <v>34</v>
+      </c>
       <c r="BA10" t="s">
         <v>19</v>
       </c>
@@ -605,7 +673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:62">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
         <v>11</v>
       </c>
@@ -633,6 +701,21 @@
       <c r="Q11">
         <v>5.5</v>
       </c>
+      <c r="R11">
+        <v>2.1</v>
+      </c>
+      <c r="S11">
+        <v>1.2</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>3.1</v>
+      </c>
+      <c r="V11">
+        <v>3.1</v>
+      </c>
       <c r="BB11" t="s">
         <v>11</v>
       </c>
@@ -661,7 +744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:62">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
         <v>12</v>
       </c>
@@ -689,6 +772,21 @@
       <c r="Q12">
         <v>3.4</v>
       </c>
+      <c r="R12">
+        <v>2.8</v>
+      </c>
+      <c r="S12">
+        <v>3.5</v>
+      </c>
+      <c r="T12">
+        <v>3.7</v>
+      </c>
+      <c r="U12">
+        <v>2.8</v>
+      </c>
+      <c r="V12">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="BB12" t="s">
         <v>12</v>
       </c>
@@ -717,7 +815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:62">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
         <v>20</v>
       </c>
@@ -745,6 +843,21 @@
       <c r="Q13">
         <v>2.1</v>
       </c>
+      <c r="R13">
+        <v>4.5</v>
+      </c>
+      <c r="S13">
+        <v>6.3</v>
+      </c>
+      <c r="T13">
+        <v>6.5</v>
+      </c>
+      <c r="U13">
+        <v>3.8</v>
+      </c>
+      <c r="V13">
+        <v>4.3</v>
+      </c>
       <c r="BB13" t="s">
         <v>13</v>
       </c>
@@ -773,7 +886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:62">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
         <v>14</v>
       </c>
@@ -801,6 +914,21 @@
       <c r="Q14">
         <v>5.4</v>
       </c>
+      <c r="R14">
+        <v>1.9</v>
+      </c>
+      <c r="S14">
+        <v>0.6</v>
+      </c>
+      <c r="T14">
+        <v>0.4</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
       <c r="BB14" t="s">
         <v>14</v>
       </c>
@@ -829,7 +957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:62">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
         <v>15</v>
       </c>
@@ -857,6 +985,21 @@
       <c r="Q15">
         <v>3.4</v>
       </c>
+      <c r="R15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S15">
+        <v>3.5</v>
+      </c>
+      <c r="T15">
+        <v>3.7</v>
+      </c>
+      <c r="U15">
+        <v>2.8</v>
+      </c>
+      <c r="V15">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="BB15" t="s">
         <v>15</v>
       </c>
@@ -885,7 +1028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:62">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
         <v>16</v>
       </c>
@@ -913,6 +1056,21 @@
       <c r="Q16">
         <v>4.5</v>
       </c>
+      <c r="R16">
+        <v>3.7</v>
+      </c>
+      <c r="S16">
+        <v>3.2</v>
+      </c>
+      <c r="T16">
+        <v>3.4</v>
+      </c>
+      <c r="U16">
+        <v>2.8</v>
+      </c>
+      <c r="V16">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="BB16" t="s">
         <v>16</v>
       </c>
@@ -941,7 +1099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:62">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.2">
       <c r="I17" t="s">
         <v>17</v>
       </c>
@@ -969,6 +1127,21 @@
       <c r="Q17">
         <v>5</v>
       </c>
+      <c r="R17">
+        <v>1.9</v>
+      </c>
+      <c r="S17">
+        <v>2.5</v>
+      </c>
+      <c r="T17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U17">
+        <v>2.4</v>
+      </c>
+      <c r="V17">
+        <v>2.6</v>
+      </c>
       <c r="BB17" t="s">
         <v>17</v>
       </c>
@@ -997,7 +1170,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:62">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
       <c r="I18" t="s">
         <v>18</v>
       </c>
@@ -1025,6 +1204,21 @@
       <c r="Q18">
         <v>0</v>
       </c>
+      <c r="R18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S18">
+        <v>6.3</v>
+      </c>
+      <c r="T18">
+        <v>6.5</v>
+      </c>
+      <c r="U18">
+        <v>3.7</v>
+      </c>
+      <c r="V18">
+        <v>4.3</v>
+      </c>
       <c r="BB18" t="s">
         <v>18</v>
       </c>
@@ -1053,27 +1247,230 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:62">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19">
+        <v>2.1</v>
+      </c>
+      <c r="K19">
+        <v>2.8</v>
+      </c>
+      <c r="L19">
+        <v>4.5</v>
+      </c>
+      <c r="M19">
+        <v>1.9</v>
+      </c>
+      <c r="N19">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O19">
+        <v>3.7</v>
+      </c>
+      <c r="P19">
+        <v>1.9</v>
+      </c>
+      <c r="Q19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>2.5</v>
+      </c>
+      <c r="T19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V19">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="2:62">
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:62">
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:62">
-      <c r="C22" t="s">
+      <c r="I20" t="s">
         <v>25</v>
+      </c>
+      <c r="J20">
+        <v>1.2</v>
+      </c>
+      <c r="K20">
+        <v>3.5</v>
+      </c>
+      <c r="L20">
+        <v>6.3</v>
+      </c>
+      <c r="M20">
+        <v>0.6</v>
+      </c>
+      <c r="N20">
+        <v>3.5</v>
+      </c>
+      <c r="O20">
+        <v>3.2</v>
+      </c>
+      <c r="P20">
+        <v>2.5</v>
+      </c>
+      <c r="Q20">
+        <v>6.3</v>
+      </c>
+      <c r="R20">
+        <v>2.5</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0.2</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>3.7</v>
+      </c>
+      <c r="L21">
+        <v>6.5</v>
+      </c>
+      <c r="M21">
+        <v>0.4</v>
+      </c>
+      <c r="N21">
+        <v>3.7</v>
+      </c>
+      <c r="O21">
+        <v>3.4</v>
+      </c>
+      <c r="P21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q21">
+        <v>6.5</v>
+      </c>
+      <c r="R21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S21">
+        <v>0.2</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V21">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22">
+        <v>3.1</v>
+      </c>
+      <c r="K22">
+        <v>2.8</v>
+      </c>
+      <c r="L22">
+        <v>3.8</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>2.8</v>
+      </c>
+      <c r="O22">
+        <v>2.8</v>
+      </c>
+      <c r="P22">
+        <v>2.4</v>
+      </c>
+      <c r="Q22">
+        <v>3.7</v>
+      </c>
+      <c r="R22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S22">
+        <v>4</v>
+      </c>
+      <c r="T22">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23">
+        <v>3.1</v>
+      </c>
+      <c r="K23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L23">
+        <v>4.3</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P23">
+        <v>2.6</v>
+      </c>
+      <c r="Q23">
+        <v>4.3</v>
+      </c>
+      <c r="R23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S23">
+        <v>3.5</v>
+      </c>
+      <c r="T23">
+        <v>3.3</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/Algorithms Data.xlsx
+++ b/DataSet/Algorithms Data.xlsx
@@ -8,13 +8,123 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/logannitzsche/Documents/GitHub/Intelligent-Routing-for-Emergency-Services-in-Edwardsville/DataSet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC9AFE0-5D22-EE40-89C3-733FE40C801A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D11D54-CE2B-EB4C-AE6C-5F31DF0D801B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="14800" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="15420" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$I$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$I$12</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$I$21</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$I$22</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$I$23</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$J$10:$V$10</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$J$11:$V$11</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$J$12:$V$12</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$J$13:$V$13</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$J$14:$V$14</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$J$15:$V$15</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$J$16:$V$16</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$I$13</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$J$17:$V$17</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$J$18:$V$18</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$J$19:$V$19</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$J$20:$V$20</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$J$21:$V$21</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$J$22:$V$22</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$J$23:$V$23</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$I$11:$I$23</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$J$10</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$J$11:$J$23</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$I$14</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$K$10</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$K$11:$K$23</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$L$10</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$L$11:$L$23</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$M$10</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$M$11:$M$23</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$N$10</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$N$11:$N$23</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$O$10</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$O$11:$O$23</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$I$15</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$P$10</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$P$11:$P$23</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$Q$10</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$Q$11:$Q$23</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$R$10</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$R$11:$R$23</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$S$10</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$S$11:$S$23</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$T$10</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$T$11:$T$23</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$I$16</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$U$10</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$U$11:$U$23</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$V$10</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$V$11:$V$23</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$I$17</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$I$18</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$I$19</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$I$20</definedName>
+    <definedName name="_xlchart.v2.100" hidden="1">Sheet1!$S$10</definedName>
+    <definedName name="_xlchart.v2.101" hidden="1">Sheet1!$S$11:$S$23</definedName>
+    <definedName name="_xlchart.v2.102" hidden="1">Sheet1!$T$10</definedName>
+    <definedName name="_xlchart.v2.103" hidden="1">Sheet1!$T$11:$T$23</definedName>
+    <definedName name="_xlchart.v2.104" hidden="1">Sheet1!$U$10</definedName>
+    <definedName name="_xlchart.v2.105" hidden="1">Sheet1!$U$11:$U$23</definedName>
+    <definedName name="_xlchart.v2.106" hidden="1">Sheet1!$V$10</definedName>
+    <definedName name="_xlchart.v2.107" hidden="1">Sheet1!$V$11:$V$23</definedName>
+    <definedName name="_xlchart.v2.54" hidden="1">Sheet1!$I$11</definedName>
+    <definedName name="_xlchart.v2.55" hidden="1">Sheet1!$I$12</definedName>
+    <definedName name="_xlchart.v2.56" hidden="1">Sheet1!$I$13</definedName>
+    <definedName name="_xlchart.v2.57" hidden="1">Sheet1!$I$14</definedName>
+    <definedName name="_xlchart.v2.58" hidden="1">Sheet1!$I$15</definedName>
+    <definedName name="_xlchart.v2.59" hidden="1">Sheet1!$I$16</definedName>
+    <definedName name="_xlchart.v2.60" hidden="1">Sheet1!$I$17</definedName>
+    <definedName name="_xlchart.v2.61" hidden="1">Sheet1!$I$18</definedName>
+    <definedName name="_xlchart.v2.62" hidden="1">Sheet1!$I$19</definedName>
+    <definedName name="_xlchart.v2.63" hidden="1">Sheet1!$I$20</definedName>
+    <definedName name="_xlchart.v2.64" hidden="1">Sheet1!$I$21</definedName>
+    <definedName name="_xlchart.v2.65" hidden="1">Sheet1!$I$22</definedName>
+    <definedName name="_xlchart.v2.66" hidden="1">Sheet1!$I$23</definedName>
+    <definedName name="_xlchart.v2.67" hidden="1">Sheet1!$J$10:$V$10</definedName>
+    <definedName name="_xlchart.v2.68" hidden="1">Sheet1!$J$11:$V$11</definedName>
+    <definedName name="_xlchart.v2.69" hidden="1">Sheet1!$J$12:$V$12</definedName>
+    <definedName name="_xlchart.v2.70" hidden="1">Sheet1!$J$13:$V$13</definedName>
+    <definedName name="_xlchart.v2.71" hidden="1">Sheet1!$J$14:$V$14</definedName>
+    <definedName name="_xlchart.v2.72" hidden="1">Sheet1!$J$15:$V$15</definedName>
+    <definedName name="_xlchart.v2.73" hidden="1">Sheet1!$J$16:$V$16</definedName>
+    <definedName name="_xlchart.v2.74" hidden="1">Sheet1!$J$17:$V$17</definedName>
+    <definedName name="_xlchart.v2.75" hidden="1">Sheet1!$J$18:$V$18</definedName>
+    <definedName name="_xlchart.v2.76" hidden="1">Sheet1!$J$19:$V$19</definedName>
+    <definedName name="_xlchart.v2.77" hidden="1">Sheet1!$J$20:$V$20</definedName>
+    <definedName name="_xlchart.v2.78" hidden="1">Sheet1!$J$21:$V$21</definedName>
+    <definedName name="_xlchart.v2.79" hidden="1">Sheet1!$J$22:$V$22</definedName>
+    <definedName name="_xlchart.v2.80" hidden="1">Sheet1!$J$23:$V$23</definedName>
+    <definedName name="_xlchart.v2.81" hidden="1">Sheet1!$I$11:$I$23</definedName>
+    <definedName name="_xlchart.v2.82" hidden="1">Sheet1!$J$10</definedName>
+    <definedName name="_xlchart.v2.83" hidden="1">Sheet1!$J$11:$J$23</definedName>
+    <definedName name="_xlchart.v2.84" hidden="1">Sheet1!$K$10</definedName>
+    <definedName name="_xlchart.v2.85" hidden="1">Sheet1!$K$11:$K$23</definedName>
+    <definedName name="_xlchart.v2.86" hidden="1">Sheet1!$L$10</definedName>
+    <definedName name="_xlchart.v2.87" hidden="1">Sheet1!$L$11:$L$23</definedName>
+    <definedName name="_xlchart.v2.88" hidden="1">Sheet1!$M$10</definedName>
+    <definedName name="_xlchart.v2.89" hidden="1">Sheet1!$M$11:$M$23</definedName>
+    <definedName name="_xlchart.v2.90" hidden="1">Sheet1!$N$10</definedName>
+    <definedName name="_xlchart.v2.91" hidden="1">Sheet1!$N$11:$N$23</definedName>
+    <definedName name="_xlchart.v2.92" hidden="1">Sheet1!$O$10</definedName>
+    <definedName name="_xlchart.v2.93" hidden="1">Sheet1!$O$11:$O$23</definedName>
+    <definedName name="_xlchart.v2.94" hidden="1">Sheet1!$P$10</definedName>
+    <definedName name="_xlchart.v2.95" hidden="1">Sheet1!$P$11:$P$23</definedName>
+    <definedName name="_xlchart.v2.96" hidden="1">Sheet1!$Q$10</definedName>
+    <definedName name="_xlchart.v2.97" hidden="1">Sheet1!$Q$11:$Q$23</definedName>
+    <definedName name="_xlchart.v2.98" hidden="1">Sheet1!$R$10</definedName>
+    <definedName name="_xlchart.v2.99" hidden="1">Sheet1!$R$11:$R$23</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -162,7 +272,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,6 +312,4126 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Accessibility Based on Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BC$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BB$11:$BB$18</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EF I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EF II</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EF III</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EPD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SPD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BC$11:$BC$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E02-1E40-9425-831995C0B42B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BD$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EF I</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BB$11:$BB$18</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EF I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EF II</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EF III</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EPD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SPD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BD$11:$BD$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5E02-1E40-9425-831995C0B42B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BE$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EF II</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BB$11:$BB$18</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EF I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EF II</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EF III</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EPD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SPD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BE$11:$BE$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5E02-1E40-9425-831995C0B42B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BF$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EF III</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BB$11:$BB$18</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EF I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EF II</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EF III</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EPD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SPD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BF$11:$BF$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5E02-1E40-9425-831995C0B42B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BG$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EPD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BB$11:$BB$18</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EF I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EF II</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EF III</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EPD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SPD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BG$11:$BG$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5E02-1E40-9425-831995C0B42B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BH$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BB$11:$BB$18</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EF I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EF II</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EF III</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EPD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SPD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BH$11:$BH$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5E02-1E40-9425-831995C0B42B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BI$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BB$11:$BB$18</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EF I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EF II</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EF III</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EPD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SPD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BI$11:$BI$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5E02-1E40-9425-831995C0B42B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BJ$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BB$11:$BB$18</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EF I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EF II</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EF III</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EPD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SPD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BJ$11:$BJ$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5E02-1E40-9425-831995C0B42B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1599355519"/>
+        <c:axId val="470123264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1599355519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470123264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="470123264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1599355519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Accessibility</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Based on Distance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$11:$I$23</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EF I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EF II </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EF III</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EPD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SPD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CVA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>EA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$11:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28CB-6043-BE21-61B9CBF91B4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EF I</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$11:$I$23</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EF I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EF II </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EF III</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EPD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SPD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CVA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>EA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$11:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-28CB-6043-BE21-61B9CBF91B4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EF II</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$11:$I$23</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EF I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EF II </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EF III</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EPD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SPD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CVA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>EA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$11:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-28CB-6043-BE21-61B9CBF91B4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EF III</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$11:$I$23</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EF I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EF II </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EF III</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EPD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SPD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CVA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>EA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$11:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-28CB-6043-BE21-61B9CBF91B4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EPD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$11:$I$23</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EF I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EF II </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EF III</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EPD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SPD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CVA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>EA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$11:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-28CB-6043-BE21-61B9CBF91B4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$11:$I$23</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EF I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EF II </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EF III</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EPD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SPD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CVA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>EA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$11:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-28CB-6043-BE21-61B9CBF91B4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$11:$I$23</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EF I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EF II </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EF III</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EPD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SPD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CVA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>EA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$11:$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-28CB-6043-BE21-61B9CBF91B4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$11:$I$23</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EF I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EF II </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EF III</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EPD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SPD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CVA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>EA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$11:$Q$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-28CB-6043-BE21-61B9CBF91B4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CVA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$11:$I$23</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EF I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EF II </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EF III</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EPD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SPD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CVA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>EA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$11:$R$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-28CB-6043-BE21-61B9CBF91B4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$11:$I$23</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EF I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EF II </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EF III</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EPD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SPD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CVA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>EA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$11:$S$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-28CB-6043-BE21-61B9CBF91B4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$11:$I$23</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EF I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EF II </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EF III</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EPD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SPD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CVA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>EA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$11:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-28CB-6043-BE21-61B9CBF91B4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$11:$I$23</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EF I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EF II </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EF III</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EPD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SPD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CVA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>EA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$11:$U$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-28CB-6043-BE21-61B9CBF91B4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$11:$I$23</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EF I</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EF II </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EF III</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EPD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MPD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SPD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CVA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RA</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>EA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$11:$V$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-28CB-6043-BE21-61B9CBF91B4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="915253120"/>
+        <c:axId val="915254832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="915253120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="915254832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="915254832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="915253120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6ABA3CD-42B5-6442-328C-998447BD29C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AAE744F-8C84-62E0-C3AC-A3BB8564F40C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,8 +4753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AY17" sqref="AY17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1475,5 +5704,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>